--- a/hiqu/Performance Evaluation/September 2024/Dev/Imran Haq.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/Dev/Imran Haq.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\ScoreCard.Arshad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0836AC-CCB7-4736-B9C9-061894418760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64E40A6-FAA3-4B53-BCE1-00C4997DE0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
   <si>
     <t>Employee Name</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Diff %</t>
   </si>
   <si>
-    <t>Difference</t>
-  </si>
-  <si>
     <t>Overall Performance</t>
   </si>
   <si>
@@ -288,24 +285,12 @@
     <t>NEXELUS 2024.2</t>
   </si>
   <si>
-    <t>Production Issues</t>
-  </si>
-  <si>
     <t>Imran Haq</t>
   </si>
   <si>
-    <t>AP WORKFLOW</t>
-  </si>
-  <si>
-    <t>Release Environment</t>
-  </si>
-  <si>
     <t>PR-013</t>
   </si>
   <si>
-    <t>Timesheet reports</t>
-  </si>
-  <si>
     <t>015</t>
   </si>
   <si>
@@ -322,16 +307,32 @@
   </si>
   <si>
     <t>02/15/2023</t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>Support Items</t>
+  </si>
+  <si>
+    <t>Development of new project/assignment/task</t>
+  </si>
+  <si>
+    <t>Meetings, mails, communication, TFS, Interviews</t>
+  </si>
+  <si>
+    <t>Hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,8 +412,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ARIAL"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,12 +435,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -512,15 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -595,7 +587,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -603,8 +595,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -618,86 +611,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
@@ -706,18 +676,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -728,13 +711,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -752,7 +735,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -761,18 +744,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Currency 2" xfId="3" xr:uid="{8180B592-B2B1-4676-AFAD-227D0E36D85D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{C6FF6618-242E-45B7-94CB-EA40EC999215}"/>
@@ -1117,7 +1097,7 @@
   <dimension ref="B2:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E28" sqref="E28:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,30 +1108,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="47"/>
+      <c r="B2" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="43"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -1159,11 +1139,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -1171,11 +1151,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -1183,11 +1163,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -1195,334 +1175,338 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="53">
+        <v>60</v>
+      </c>
+      <c r="C10" s="49">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.5917808219178082</v>
-      </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+        <v>1.6438356164383561</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="C11" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="52"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="J18" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="52"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="J19" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="52"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="J20" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="52"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="J21" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="52"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="J22" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" s="52"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="36"/>
+      <c r="J23" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="52"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="68">
-        <v>0.7</v>
-      </c>
-      <c r="J16" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="J17" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="56"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="69">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="J18" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="56"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="68">
-        <v>0.75</v>
-      </c>
-      <c r="J19" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="56"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="68">
-        <v>0.75</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="68">
-        <v>0.75</v>
-      </c>
-      <c r="J20" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" s="56"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="J21" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="56"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="68">
-        <v>0.7</v>
-      </c>
-      <c r="J22" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" s="56"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="68">
-        <v>0.75</v>
-      </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="68"/>
-      <c r="J23" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="K23" s="56"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="54" t="s">
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="M27" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="J27" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="K27" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="L27" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="M27" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="N27" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1">
-        <v>22</v>
-      </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="2">
+        <v>19</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1534,14 +1518,18 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1">
+      <c r="B29" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2">
+        <v>21</v>
+      </c>
+      <c r="D29" s="2">
         <v>22</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="2">
+        <v>19</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1553,14 +1541,18 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1"/>
+      <c r="B30" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1572,14 +1564,18 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1">
+      <c r="B31" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2">
         <v>22</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="2">
+        <v>18</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1591,14 +1587,18 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1"/>
+      <c r="B32" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1610,14 +1610,18 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1">
+      <c r="B33" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1629,14 +1633,18 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1"/>
+      <c r="B34" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1648,14 +1656,18 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1"/>
+      <c r="B35" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1796,207 +1808,214 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
-  <dimension ref="B2:W26"/>
+  <dimension ref="B2:X20"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="6"/>
-    <col min="10" max="10" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.28515625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="2.28515625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" style="6" customWidth="1"/>
-    <col min="20" max="22" width="9.28515625" style="6"/>
-    <col min="23" max="23" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="6"/>
+    <col min="11" max="11" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.28515625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="2.28515625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="6" customWidth="1"/>
+    <col min="21" max="23" width="9.28515625" style="6"/>
+    <col min="24" max="24" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="60" t="s">
+    <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-    </row>
-    <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="61" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+    </row>
+    <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="65" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="N6" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="R6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="14"/>
+      <c r="U6" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="60"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66" t="s">
+      <c r="E7" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="M6" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="Q6" s="15" t="s">
+      <c r="G7" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="15"/>
-      <c r="T6" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="64"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
-        <v>85</v>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
@@ -2004,145 +2023,140 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="9"/>
-      <c r="M8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="8"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="T8" s="8"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="9"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W8" s="2"/>
+      <c r="X8" s="8"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="5"/>
+      <c r="C9" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34">
+        <v>1</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2">
-        <v>6</v>
-      </c>
-      <c r="K9" s="17">
-        <f t="shared" ref="K9" si="0">IF(I9=0,0,(J9-I9)/I9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="2"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="16">
+        <f t="shared" ref="L9" si="0">IF(J9=0,0,(K9-J9)/J9)</f>
+        <v>0</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="40">
+        <f>D9+E9+F9+G9+H9+I9+K9+O9</f>
+        <v>1</v>
+      </c>
+      <c r="T9" s="16"/>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" s="2">
         <v>0</v>
       </c>
-      <c r="W9" s="9">
-        <f>SUM(T9:V9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="8">
+        <f>SUM(U9:W9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
+        <v>81</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="18"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="19"/>
-      <c r="Q10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="19"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="8"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>84</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="16">
+        <f t="shared" ref="L11" si="1">IF(J11=0,0,(K11-J11)/J11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="24">
-        <f>SUM(D8:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="24">
-        <f>SUM(E8:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24">
-        <f>SUM(G8:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="21">
-        <f>SUM(I9:I10)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="21">
-        <f>SUM(J9:J10)</f>
-        <v>6</v>
-      </c>
-      <c r="K11" s="22">
-        <f>IF(I11=0,0,(J11-I11)/I11)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21">
-        <f>SUM(M9:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="21">
-        <f>SUM(N9:N10)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="21">
-        <f>SUM(T9:T10)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="21">
-        <f>SUM(U9:U10)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="21">
-        <f>SUM(V9:V10)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="21">
-        <f>SUM(T11:V11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="1"/>
+      <c r="P11" s="16">
+        <f>(O11-N11)/IF(N11=0,O11,N11)</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="40">
+        <f>D11+E11+F11+G11+H11+I11+K11+O11</f>
+        <v>97</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="8"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="39" t="s">
+        <v>92</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2150,61 +2164,67 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="17"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="2"/>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>3</v>
+      </c>
+      <c r="P12" s="16">
+        <f>(O12-N12)/IF(N12=0,O12,N12)</f>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="40">
+        <f>D12+E12+F12+G12+H12+I12+K12+O12</f>
+        <v>3</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="16"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="9"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W12" s="2"/>
+      <c r="X12" s="18"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>83</v>
+      <c r="C13" s="39" t="s">
+        <v>91</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="17">
-        <f t="shared" ref="K13" si="1">IF(I13=0,0,(J13-I13)/I13)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>10</v>
-      </c>
-      <c r="O13" s="17">
-        <f>(N13-M13)/IF(M13=0,N13,M13)</f>
-        <v>1</v>
-      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="17">
-        <f>IF((I13+M13)=0,1,((J13+N13)-(I13+M13))/(I13+M13))</f>
-        <v>1</v>
-      </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="40">
+        <f>D13+E13+F13+G13+H13+I13+K13+O13</f>
+        <v>2</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="8"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="9"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="18"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2213,135 +2233,117 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="8"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="8"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="19"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26">
-        <f>SUM(I12:I14)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="26">
-        <f>SUM(J12:J14)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="27">
-        <f t="shared" ref="K15:K25" si="2">IF(I15=0,0,(J15-I15)/I15)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26">
-        <f>SUM(M12:M14)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="26">
-        <f>SUM(N12:N14)</f>
-        <v>10</v>
-      </c>
-      <c r="O15" s="27">
-        <f>(N15-M15)/IF(M15=0,N15,M15)</f>
+      <c r="W14" s="2"/>
+      <c r="X14" s="8"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>28</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="16">
+        <f t="shared" ref="L15" si="2">IF(J15=0,0,(K15-J15)/J15)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="40">
+        <f>D15+E15+F15+G15+H15+I15+K15+O15</f>
+        <v>28</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="8"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27">
-        <f t="shared" ref="Q15" si="3">IF((I15+M15)=0,1,((J15+N15)-(I15+M15))/(I15+M15))</f>
-        <v>1</v>
-      </c>
-      <c r="R15" s="26"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="26">
-        <f>SUM(T12:T14)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="26">
-        <f>SUM(U12:U14)</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="26">
-        <f>SUM(V12:V14)</f>
-        <v>0</v>
-      </c>
-      <c r="W15" s="26">
-        <f>SUM(T15:V15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="17"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="2"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="40">
+        <f>D16+E16+F16+G16+H16+I16+K16+O16</f>
+        <v>1</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="16"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="9"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W16" s="2"/>
+      <c r="X16" s="18"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2">
-        <v>21</v>
-      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="17">
-        <f t="shared" ref="K17" si="4">IF(I17=0,0,(J17-I17)/I17)</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="17"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="40">
+        <f>D17+E17+F17+G17+H17+I17+K17+O17</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="16"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="9"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W17" s="2"/>
+      <c r="X17" s="18"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
@@ -2351,275 +2353,115 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="17"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="8"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="19"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26">
-        <f>SUM(I16:I18)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="26">
-        <f>SUM(J16:J18)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="27">
-        <f t="shared" ref="K19" si="5">IF(I19=0,0,(J19-I19)/I19)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26">
-        <f>SUM(M16:M18)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="26">
-        <f>SUM(N16:N18)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="26">
-        <f>SUM(T16:T18)</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="26">
-        <f>SUM(U16:U18)</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="26">
-        <f>SUM(V16:V18)</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="26">
-        <f>SUM(T19:V19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="9"/>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2">
-        <v>18</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="17">
-        <f t="shared" ref="K21" si="6">IF(I21=0,0,(J21-I21)/I21)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="9"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="19"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26">
-        <f>SUM(I20:I22)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="26">
-        <f>SUM(J20:J22)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="27">
-        <f t="shared" ref="K23" si="7">IF(I23=0,0,(J23-I23)/I23)</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26">
-        <f>SUM(M20:M22)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="26">
-        <f>SUM(N20:N22)</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="26">
-        <f>SUM(T20:T22)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="26">
-        <f>SUM(U20:U22)</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="26">
-        <f>SUM(V20:V22)</f>
-        <v>0</v>
-      </c>
-      <c r="W23" s="26">
-        <f>SUM(T23:V23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29">
-        <f>SUM(I15,I11)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="29">
-        <f>SUM(J15,J11)</f>
-        <v>6</v>
-      </c>
-      <c r="K25" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29">
-        <f>SUM(M15,M11)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="29">
-        <f>SUM(N15,N11)</f>
-        <v>10</v>
-      </c>
-      <c r="O25" s="30">
-        <f t="shared" ref="O25" si="8">IF(M25=0,0,(N25-M25)/M25)</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29">
-        <f>SUM(T15,T11)</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="29">
-        <f>SUM(U15,U11)</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="29">
-        <f>SUM(V15,V11)</f>
-        <v>0</v>
-      </c>
-      <c r="W25" s="29">
-        <f>SUM(W15,W11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="18"/>
+    </row>
+    <row r="19" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20">
+        <f>SUM(D8:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" ref="E19:K19" si="3">SUM(E8:E18)</f>
+        <v>3</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="20">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L19" s="21">
+        <f t="shared" ref="L19" si="4">IF(J19=0,0,(K19-J19)/J19)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20">
+        <f t="shared" ref="N19:O19" si="5">SUM(N8:N18)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="20">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="P19" s="21">
+        <f t="shared" ref="P19" si="6">IF(N19=0,0,(O19-N19)/N19)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="41">
+        <f>SUM(R8:R18)</f>
+        <v>132</v>
+      </c>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20">
+        <f t="shared" ref="U19:X19" si="7">SUM(U8:U18)</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B3:W3"/>
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="B4:W4"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B3:X3"/>
+    <mergeCell ref="B2:X2"/>
+    <mergeCell ref="B4:X4"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
-  <conditionalFormatting sqref="T9">
+  <conditionalFormatting sqref="U9">
     <cfRule type="expression" priority="3">
-      <formula>T9/$W9</formula>
+      <formula>U9/$X9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hiqu/Performance Evaluation/September 2024/Dev/Imran Haq.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/Dev/Imran Haq.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64E40A6-FAA3-4B53-BCE1-00C4997DE0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26154FB-8E7C-45A4-AD80-D48E158CC639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
-    <sheet name="September 24" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="September 24" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
   <si>
     <t>Employee Name</t>
   </si>
@@ -322,6 +323,18 @@
   </si>
   <si>
     <t>Hours</t>
+  </si>
+  <si>
+    <t>Quarterly Evaluation (%)</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
   </si>
 </sst>
 </file>
@@ -415,8 +428,8 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="ARIAL"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -597,7 +610,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -692,15 +705,30 @@
     <xf numFmtId="43" fontId="0" fillId="4" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -708,22 +736,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -748,6 +764,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1096,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,18 +1128,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
@@ -1127,11 +1147,11 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -1139,11 +1159,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -1151,11 +1171,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -1163,11 +1183,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -1175,11 +1195,11 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
@@ -1187,12 +1207,12 @@
       <c r="B10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="54">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.6438356164383561</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+        <v>1.6520547945205479</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
     </row>
@@ -1200,29 +1220,29 @@
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
@@ -1263,11 +1283,11 @@
       <c r="H16" s="36">
         <v>0.7</v>
       </c>
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="49"/>
       <c r="M16" s="37">
         <v>0</v>
       </c>
@@ -1287,11 +1307,11 @@
       <c r="H17" s="36">
         <v>0.8</v>
       </c>
-      <c r="J17" s="51" t="s">
+      <c r="J17" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="K17" s="52"/>
-      <c r="L17" s="53"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="49"/>
       <c r="M17" s="37">
         <v>0.5</v>
       </c>
@@ -1311,11 +1331,11 @@
       <c r="H18" s="36">
         <v>0.8</v>
       </c>
-      <c r="J18" s="51" t="s">
+      <c r="J18" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="49"/>
       <c r="M18" s="37">
         <v>0</v>
       </c>
@@ -1335,11 +1355,11 @@
       <c r="H19" s="36">
         <v>0.75</v>
       </c>
-      <c r="J19" s="51" t="s">
+      <c r="J19" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="49"/>
       <c r="M19" s="37">
         <v>0</v>
       </c>
@@ -1359,11 +1379,11 @@
       <c r="H20" s="36">
         <v>0.75</v>
       </c>
-      <c r="J20" s="51" t="s">
+      <c r="J20" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="53"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="49"/>
       <c r="M20" s="37">
         <v>0</v>
       </c>
@@ -1383,11 +1403,11 @@
       <c r="H21" s="36">
         <v>0.8</v>
       </c>
-      <c r="J21" s="51" t="s">
+      <c r="J21" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="52"/>
-      <c r="L21" s="53"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="49"/>
       <c r="M21" s="37">
         <v>0</v>
       </c>
@@ -1407,11 +1427,11 @@
       <c r="H22" s="36">
         <v>0.7</v>
       </c>
-      <c r="J22" s="51" t="s">
+      <c r="J22" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="52"/>
-      <c r="L22" s="53"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="49"/>
       <c r="M22" s="37">
         <v>0</v>
       </c>
@@ -1427,31 +1447,31 @@
       <c r="F23" s="45"/>
       <c r="G23" s="46"/>
       <c r="H23" s="36"/>
-      <c r="J23" s="51" t="s">
+      <c r="J23" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="53"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="49"/>
       <c r="M23" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
@@ -1680,6 +1700,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B13:M13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="B25:N25"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
@@ -1696,17 +1727,6 @@
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="C16:C23">
@@ -1807,6 +1827,612 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DAA620-233E-46CF-8428-8B80CB6EF082}">
+  <dimension ref="B3:M37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="28"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="37">
+        <v>0</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="37">
+        <v>0</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="37">
+        <v>0</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="37">
+        <v>0</v>
+      </c>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="37">
+        <v>0</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="37">
+        <v>0</v>
+      </c>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C28:E28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D6:D13">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5998B0C4-46F5-4514-830F-CAFB76EA44A6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D25">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{89F5B50F-BBE8-48DA-8B97-8449AC19DF89}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D37">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2E5373AC-BB22-486D-816A-5529C97A5F27}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E13">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{780BD23A-052C-4C09-90C6-D58DFE62C6CD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E25">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{00E866DB-83A9-4343-A260-7D279D2D8F3A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E37">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{42225619-D553-4D75-9D90-18ECF3708BE9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C13">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E55CCDA7-A4C6-4033-AE3D-4BD7638CB4DE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C25">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F11AB4BF-EBF3-4C0E-93CE-F4A5BE5CD076}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:C37">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{470B708A-5487-4D35-B59D-A7001EE203E4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5998B0C4-46F5-4514-830F-CAFB76EA44A6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D6:D13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{89F5B50F-BBE8-48DA-8B97-8449AC19DF89}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D18:D25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2E5373AC-BB22-486D-816A-5529C97A5F27}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D30:D37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{780BD23A-052C-4C09-90C6-D58DFE62C6CD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E6:E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{00E866DB-83A9-4343-A260-7D279D2D8F3A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E18:E25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{42225619-D553-4D75-9D90-18ECF3708BE9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E30:E37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E55CCDA7-A4C6-4033-AE3D-4BD7638CB4DE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C6:C13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F11AB4BF-EBF3-4C0E-93CE-F4A5BE5CD076}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C18:C25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{470B708A-5487-4D35-B59D-A7001EE203E4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C30:C37</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
   <dimension ref="B2:X20"/>
   <sheetViews>
@@ -1839,85 +2465,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
     </row>
     <row r="3" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
@@ -1926,38 +2552,38 @@
       <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62" t="s">
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="N6" s="61" t="s">
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="N6" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
       <c r="R6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="T6" s="14"/>
-      <c r="U6" s="58" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="61"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
@@ -1974,8 +2600,8 @@
       <c r="G7" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="11" t="s">
         <v>9</v>
       </c>
